--- a/data/trans_dic/AIRE_1_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Dificultad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.901524926754747</v>
+        <v>0.9015249267547469</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.8942833976739216</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8459594339793519</v>
+        <v>0.8472223486017693</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8573841239420025</v>
+        <v>0.8608531525896962</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8681804284002071</v>
+        <v>0.8672995052206138</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.937636213928165</v>
+        <v>0.9357562305259405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9217050757019062</v>
+        <v>0.9231033125703649</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9199598571846783</v>
+        <v>0.9209548842164719</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.8256008242208039</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8064973656957094</v>
+        <v>0.8064973656957093</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7429225266718452</v>
+        <v>0.7374164537462099</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7947818681389447</v>
+        <v>0.7914645399445872</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7789466344151569</v>
+        <v>0.7795045584515361</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8239455883630994</v>
+        <v>0.824861717760373</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8524440204552906</v>
+        <v>0.8541334770298517</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8307971312679484</v>
+        <v>0.8300242220666925</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.7154158206236328</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7520963638577788</v>
+        <v>0.7520963638577789</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.733236665048112</v>
+        <v>0.7332366650481121</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6708822733919648</v>
+        <v>0.675842200601667</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7181726220722211</v>
+        <v>0.7203285001678389</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7068059869102644</v>
+        <v>0.7088127934169979</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7536666611920083</v>
+        <v>0.7535932796598634</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7843459752260172</v>
+        <v>0.7840791868311011</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7589959053548535</v>
+        <v>0.7595418470528459</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.6012176468632203</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6062835706587887</v>
+        <v>0.6062835706587885</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.6036727571705984</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5443179343579138</v>
+        <v>0.5494029645626266</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5602603084517708</v>
+        <v>0.5579412969866038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5676540305612593</v>
+        <v>0.5725516838151719</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6507158978476112</v>
+        <v>0.654889605376772</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6469595963179962</v>
+        <v>0.6497867792846743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6382013681907274</v>
+        <v>0.6393532382765738</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7375416874045408</v>
+        <v>0.7375416874045407</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.7700834766299769</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7541002471653464</v>
+        <v>0.7541002471653463</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7148202483542626</v>
+        <v>0.7131236598147632</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7535697412487055</v>
+        <v>0.7532430138076429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7376834283730933</v>
+        <v>0.7383986728379125</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7621823324770265</v>
+        <v>0.7599974316555096</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7889406055383825</v>
+        <v>0.7873827794620818</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7677233022518903</v>
+        <v>0.7682512278108123</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>223278</v>
+        <v>223612</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>270106</v>
+        <v>271199</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>502650</v>
+        <v>502140</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>247475</v>
+        <v>246979</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>290369</v>
+        <v>290810</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>532628</v>
+        <v>533204</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>375540</v>
+        <v>372757</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>456886</v>
+        <v>454979</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>841533</v>
+        <v>842135</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>416496</v>
+        <v>416959</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>490033</v>
+        <v>491005</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>897549</v>
+        <v>896714</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>405420</v>
+        <v>408417</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>410092</v>
+        <v>411323</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>830730</v>
+        <v>833088</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>455447</v>
+        <v>455402</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>447878</v>
+        <v>447726</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>892070</v>
+        <v>892712</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>214752</v>
+        <v>216759</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>207860</v>
+        <v>207000</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>434563</v>
+        <v>438312</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>256730</v>
+        <v>258377</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>240026</v>
+        <v>241075</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>488570</v>
+        <v>489452</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1263994</v>
+        <v>1260994</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1380478</v>
+        <v>1379879</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2655798</v>
+        <v>2658373</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1347743</v>
+        <v>1343879</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1445274</v>
+        <v>1442421</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2763947</v>
+        <v>2765848</v>
       </c>
     </row>
     <row r="24">
